--- a/data/quiz0406.xlsx
+++ b/data/quiz0406.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coop2711/Google 드라이브/Works/Class/Statistics/R.WD/Class_data/class201601/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20640" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="249">
   <si>
     <t>과목명 : 생활속의통계학-01(005036)</t>
   </si>
@@ -779,6 +787,18 @@
   </si>
   <si>
     <t>이념성향</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -868,16 +888,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,7 +914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -910,16 +930,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -929,9 +949,30 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1198,7 +1239,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1208,36 +1249,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T67" sqref="T67"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="28.5546875" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="12" width="11.5546875" customWidth="1"/>
-    <col min="14" max="14" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
       <c r="I1" s="11"/>
       <c r="J1" s="12" t="s">
         <v>232</v>
@@ -1261,7 +1302,7 @@
       <c r="S1" s="13"/>
       <c r="T1" s="4"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1286,16 +1327,16 @@
       <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="8" t="s">
         <v>235</v>
       </c>
       <c r="M2" s="3" t="s">
@@ -1323,7 +1364,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1343,17 +1384,17 @@
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="10">
-        <v>1</v>
-      </c>
-      <c r="K3" s="10">
-        <v>2</v>
-      </c>
-      <c r="L3" s="10">
+      <c r="J3" s="8">
+        <v>1</v>
+      </c>
+      <c r="K3" s="8">
+        <v>2</v>
+      </c>
+      <c r="L3" s="8">
         <v>2</v>
       </c>
       <c r="M3" s="3">
@@ -1381,7 +1422,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1401,17 +1442,17 @@
       <c r="G4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="10">
-        <v>4</v>
-      </c>
-      <c r="K4" s="10">
-        <v>2</v>
-      </c>
-      <c r="L4" s="10"/>
+      <c r="J4" s="8">
+        <v>4</v>
+      </c>
+      <c r="K4" s="8">
+        <v>2</v>
+      </c>
+      <c r="L4" s="8"/>
       <c r="M4" s="3">
         <v>2</v>
       </c>
@@ -1435,7 +1476,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1455,15 +1496,15 @@
       <c r="G5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="10">
-        <v>1</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10">
+      <c r="J5" s="8">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8">
         <v>1</v>
       </c>
       <c r="M5" s="3">
@@ -1491,7 +1532,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1511,17 +1552,17 @@
       <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10" t="s">
+      <c r="H6" s="7"/>
+      <c r="I6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="10">
-        <v>1</v>
-      </c>
-      <c r="K6" s="10">
-        <v>2</v>
-      </c>
-      <c r="L6" s="10">
+      <c r="J6" s="8">
+        <v>1</v>
+      </c>
+      <c r="K6" s="8">
+        <v>2</v>
+      </c>
+      <c r="L6" s="8">
         <v>1</v>
       </c>
       <c r="M6" s="3">
@@ -1547,7 +1588,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1567,17 +1608,17 @@
       <c r="G7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="10">
-        <v>4</v>
-      </c>
-      <c r="K7" s="10">
-        <v>2</v>
-      </c>
-      <c r="L7" s="10"/>
+      <c r="J7" s="8">
+        <v>4</v>
+      </c>
+      <c r="K7" s="8">
+        <v>2</v>
+      </c>
+      <c r="L7" s="8"/>
       <c r="M7" s="5">
         <v>6</v>
       </c>
@@ -1601,7 +1642,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1621,17 +1662,17 @@
       <c r="G8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="10">
-        <v>4</v>
-      </c>
-      <c r="K8" s="10">
-        <v>1</v>
-      </c>
-      <c r="L8" s="10">
+      <c r="J8" s="8">
+        <v>4</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8">
         <v>1</v>
       </c>
       <c r="M8" s="3">
@@ -1659,7 +1700,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1679,17 +1720,17 @@
       <c r="G9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="10">
-        <v>4</v>
-      </c>
-      <c r="K9" s="10">
-        <v>2</v>
-      </c>
-      <c r="L9" s="10">
+      <c r="J9" s="8">
+        <v>4</v>
+      </c>
+      <c r="K9" s="8">
+        <v>2</v>
+      </c>
+      <c r="L9" s="8">
         <v>1</v>
       </c>
       <c r="M9" s="3">
@@ -1715,7 +1756,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1735,15 +1776,15 @@
       <c r="G10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="10">
-        <v>1</v>
-      </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="J10" s="8">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
       <c r="M10" s="3">
         <v>4</v>
       </c>
@@ -1767,7 +1808,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1787,15 +1828,15 @@
       <c r="G11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10" t="s">
+      <c r="H11" s="7"/>
+      <c r="I11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="10">
-        <v>2</v>
-      </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10">
+      <c r="J11" s="8">
+        <v>2</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8">
         <v>1</v>
       </c>
       <c r="M11" s="3">
@@ -1823,7 +1864,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1843,17 +1884,17 @@
       <c r="G12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10" t="s">
+      <c r="H12" s="7"/>
+      <c r="I12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="10">
-        <v>4</v>
-      </c>
-      <c r="K12" s="10">
-        <v>1</v>
-      </c>
-      <c r="L12" s="10"/>
+      <c r="J12" s="8">
+        <v>4</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1</v>
+      </c>
+      <c r="L12" s="8"/>
       <c r="M12" s="3">
         <v>2</v>
       </c>
@@ -1877,7 +1918,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1897,15 +1938,15 @@
       <c r="G13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10" t="s">
+      <c r="H13" s="7"/>
+      <c r="I13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="10">
-        <v>2</v>
-      </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="J13" s="8">
+        <v>2</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
       <c r="M13" s="3">
         <v>1</v>
       </c>
@@ -1931,7 +1972,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1951,17 +1992,17 @@
       <c r="G14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10" t="s">
+      <c r="H14" s="7"/>
+      <c r="I14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="10">
-        <v>2</v>
-      </c>
-      <c r="K14" s="10">
-        <v>1</v>
-      </c>
-      <c r="L14" s="10">
+      <c r="J14" s="8">
+        <v>2</v>
+      </c>
+      <c r="K14" s="8">
+        <v>1</v>
+      </c>
+      <c r="L14" s="8">
         <v>1</v>
       </c>
       <c r="M14" s="3">
@@ -1989,7 +2030,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2009,17 +2050,17 @@
       <c r="G15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10" t="s">
+      <c r="H15" s="7"/>
+      <c r="I15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="10">
-        <v>4</v>
-      </c>
-      <c r="K15" s="10">
-        <v>2</v>
-      </c>
-      <c r="L15" s="10">
+      <c r="J15" s="8">
+        <v>4</v>
+      </c>
+      <c r="K15" s="8">
+        <v>2</v>
+      </c>
+      <c r="L15" s="8">
         <v>2</v>
       </c>
       <c r="M15" s="3">
@@ -2045,7 +2086,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2065,17 +2106,17 @@
       <c r="G16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10" t="s">
+      <c r="H16" s="7"/>
+      <c r="I16" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="10">
-        <v>2</v>
-      </c>
-      <c r="K16" s="10">
-        <v>2</v>
-      </c>
-      <c r="L16" s="10">
+      <c r="J16" s="8">
+        <v>2</v>
+      </c>
+      <c r="K16" s="8">
+        <v>2</v>
+      </c>
+      <c r="L16" s="8">
         <v>1</v>
       </c>
       <c r="M16" s="3">
@@ -2101,7 +2142,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2121,15 +2162,15 @@
       <c r="G17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10" t="s">
+      <c r="H17" s="7"/>
+      <c r="I17" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="J17" s="10">
-        <v>4</v>
-      </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="J17" s="8">
+        <v>4</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
       <c r="M17" s="3">
         <v>6</v>
       </c>
@@ -2155,7 +2196,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2175,17 +2216,17 @@
       <c r="G18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10" t="s">
+      <c r="H18" s="7"/>
+      <c r="I18" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J18" s="10">
-        <v>1</v>
-      </c>
-      <c r="K18" s="10">
-        <v>2</v>
-      </c>
-      <c r="L18" s="10">
+      <c r="J18" s="8">
+        <v>1</v>
+      </c>
+      <c r="K18" s="8">
+        <v>2</v>
+      </c>
+      <c r="L18" s="8">
         <v>1</v>
       </c>
       <c r="M18" s="3">
@@ -2211,7 +2252,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2231,17 +2272,17 @@
       <c r="G19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10" t="s">
+      <c r="H19" s="7"/>
+      <c r="I19" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J19" s="10">
-        <v>1</v>
-      </c>
-      <c r="K19" s="10">
-        <v>2</v>
-      </c>
-      <c r="L19" s="10">
+      <c r="J19" s="8">
+        <v>1</v>
+      </c>
+      <c r="K19" s="8">
+        <v>2</v>
+      </c>
+      <c r="L19" s="8">
         <v>1</v>
       </c>
       <c r="M19" s="3">
@@ -2269,7 +2310,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2289,17 +2330,17 @@
       <c r="G20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="10" t="s">
+      <c r="H20" s="7"/>
+      <c r="I20" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="J20" s="10">
-        <v>4</v>
-      </c>
-      <c r="K20" s="10">
-        <v>2</v>
-      </c>
-      <c r="L20" s="10">
+      <c r="J20" s="8">
+        <v>4</v>
+      </c>
+      <c r="K20" s="8">
+        <v>2</v>
+      </c>
+      <c r="L20" s="8">
         <v>1</v>
       </c>
       <c r="M20" s="3">
@@ -2319,7 +2360,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -2339,17 +2380,17 @@
       <c r="G21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="10" t="s">
+      <c r="H21" s="7"/>
+      <c r="I21" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="J21" s="10">
-        <v>1</v>
-      </c>
-      <c r="K21" s="10">
-        <v>2</v>
-      </c>
-      <c r="L21" s="10">
+      <c r="J21" s="8">
+        <v>1</v>
+      </c>
+      <c r="K21" s="8">
+        <v>2</v>
+      </c>
+      <c r="L21" s="8">
         <v>2</v>
       </c>
       <c r="M21" s="3">
@@ -2375,7 +2416,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -2395,13 +2436,13 @@
       <c r="G22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="10" t="s">
+      <c r="H22" s="7"/>
+      <c r="I22" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -2409,9 +2450,11 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
-      <c r="T22" s="3"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T22" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -2431,13 +2474,13 @@
       <c r="G23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10" t="s">
+      <c r="H23" s="7"/>
+      <c r="I23" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -2445,9 +2488,11 @@
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
-      <c r="T23" s="3"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T23" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -2467,15 +2512,15 @@
       <c r="G24" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="10" t="s">
+      <c r="H24" s="7"/>
+      <c r="I24" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10">
-        <v>1</v>
-      </c>
-      <c r="L24" s="10"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8">
+        <v>1</v>
+      </c>
+      <c r="L24" s="8"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -2487,7 +2532,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -2507,17 +2552,17 @@
       <c r="G25" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="10" t="s">
+      <c r="H25" s="7"/>
+      <c r="I25" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="J25" s="10">
-        <v>1</v>
-      </c>
-      <c r="K25" s="10">
-        <v>2</v>
-      </c>
-      <c r="L25" s="10">
+      <c r="J25" s="8">
+        <v>1</v>
+      </c>
+      <c r="K25" s="8">
+        <v>2</v>
+      </c>
+      <c r="L25" s="8">
         <v>1</v>
       </c>
       <c r="M25" s="3">
@@ -2543,7 +2588,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -2563,17 +2608,17 @@
       <c r="G26" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="10" t="s">
+      <c r="H26" s="7"/>
+      <c r="I26" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="J26" s="10">
-        <v>2</v>
-      </c>
-      <c r="K26" s="10">
-        <v>2</v>
-      </c>
-      <c r="L26" s="10">
+      <c r="J26" s="8">
+        <v>2</v>
+      </c>
+      <c r="K26" s="8">
+        <v>2</v>
+      </c>
+      <c r="L26" s="8">
         <v>1</v>
       </c>
       <c r="M26" s="3">
@@ -2601,7 +2646,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -2621,17 +2666,17 @@
       <c r="G27" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="10" t="s">
+      <c r="H27" s="7"/>
+      <c r="I27" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="J27" s="10">
-        <v>1</v>
-      </c>
-      <c r="K27" s="10">
-        <v>2</v>
-      </c>
-      <c r="L27" s="10">
+      <c r="J27" s="8">
+        <v>1</v>
+      </c>
+      <c r="K27" s="8">
+        <v>2</v>
+      </c>
+      <c r="L27" s="8">
         <v>1</v>
       </c>
       <c r="M27" s="3">
@@ -2651,7 +2696,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -2671,17 +2716,17 @@
       <c r="G28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="10" t="s">
+      <c r="H28" s="7"/>
+      <c r="I28" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="J28" s="10">
-        <v>2</v>
-      </c>
-      <c r="K28" s="10">
-        <v>2</v>
-      </c>
-      <c r="L28" s="10">
+      <c r="J28" s="8">
+        <v>2</v>
+      </c>
+      <c r="K28" s="8">
+        <v>2</v>
+      </c>
+      <c r="L28" s="8">
         <v>1</v>
       </c>
       <c r="M28" s="3">
@@ -2707,7 +2752,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -2727,17 +2772,17 @@
       <c r="G29" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="10" t="s">
+      <c r="H29" s="7"/>
+      <c r="I29" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="J29" s="10">
-        <v>1</v>
-      </c>
-      <c r="K29" s="10">
-        <v>2</v>
-      </c>
-      <c r="L29" s="10">
+      <c r="J29" s="8">
+        <v>1</v>
+      </c>
+      <c r="K29" s="8">
+        <v>2</v>
+      </c>
+      <c r="L29" s="8">
         <v>1</v>
       </c>
       <c r="M29" s="3">
@@ -2763,7 +2808,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -2783,15 +2828,15 @@
       <c r="G30" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="10" t="s">
+      <c r="H30" s="7"/>
+      <c r="I30" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="J30" s="10">
-        <v>4</v>
-      </c>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
+      <c r="J30" s="8">
+        <v>4</v>
+      </c>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
       <c r="M30" s="3">
         <v>2</v>
       </c>
@@ -2817,7 +2862,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -2837,17 +2882,17 @@
       <c r="G31" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="10" t="s">
+      <c r="H31" s="7"/>
+      <c r="I31" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="J31" s="10">
-        <v>4</v>
-      </c>
-      <c r="K31" s="10">
-        <v>2</v>
-      </c>
-      <c r="L31" s="10">
+      <c r="J31" s="8">
+        <v>4</v>
+      </c>
+      <c r="K31" s="8">
+        <v>2</v>
+      </c>
+      <c r="L31" s="8">
         <v>1</v>
       </c>
       <c r="M31" s="3">
@@ -2867,7 +2912,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -2887,15 +2932,15 @@
       <c r="G32" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="10" t="s">
+      <c r="H32" s="7"/>
+      <c r="I32" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="J32" s="10">
-        <v>5</v>
-      </c>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
+      <c r="J32" s="8">
+        <v>5</v>
+      </c>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
       <c r="M32" s="3">
         <v>2</v>
       </c>
@@ -2921,7 +2966,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -2941,17 +2986,17 @@
       <c r="G33" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="10" t="s">
+      <c r="H33" s="7"/>
+      <c r="I33" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="J33" s="10">
-        <v>1</v>
-      </c>
-      <c r="K33" s="10">
-        <v>2</v>
-      </c>
-      <c r="L33" s="10">
+      <c r="J33" s="8">
+        <v>1</v>
+      </c>
+      <c r="K33" s="8">
+        <v>2</v>
+      </c>
+      <c r="L33" s="8">
         <v>2</v>
       </c>
       <c r="M33" s="3">
@@ -2977,7 +3022,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -2997,17 +3042,17 @@
       <c r="G34" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="10" t="s">
+      <c r="H34" s="7"/>
+      <c r="I34" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="J34" s="10">
-        <v>4</v>
-      </c>
-      <c r="K34" s="10">
-        <v>2</v>
-      </c>
-      <c r="L34" s="10">
+      <c r="J34" s="8">
+        <v>4</v>
+      </c>
+      <c r="K34" s="8">
+        <v>2</v>
+      </c>
+      <c r="L34" s="8">
         <v>2</v>
       </c>
       <c r="M34" s="5">
@@ -3033,7 +3078,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -3053,17 +3098,17 @@
       <c r="G35" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="10" t="s">
+      <c r="H35" s="7"/>
+      <c r="I35" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="J35" s="10">
-        <v>4</v>
-      </c>
-      <c r="K35" s="10">
-        <v>2</v>
-      </c>
-      <c r="L35" s="10">
+      <c r="J35" s="8">
+        <v>4</v>
+      </c>
+      <c r="K35" s="8">
+        <v>2</v>
+      </c>
+      <c r="L35" s="8">
         <v>2</v>
       </c>
       <c r="M35" s="3">
@@ -3089,7 +3134,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -3109,15 +3154,15 @@
       <c r="G36" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H36" s="9"/>
-      <c r="I36" s="10" t="s">
+      <c r="H36" s="7"/>
+      <c r="I36" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="J36" s="10">
-        <v>2</v>
-      </c>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10">
+      <c r="J36" s="8">
+        <v>2</v>
+      </c>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8">
         <v>2</v>
       </c>
       <c r="M36" s="3">
@@ -3145,7 +3190,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -3165,17 +3210,17 @@
       <c r="G37" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="10" t="s">
+      <c r="H37" s="7"/>
+      <c r="I37" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="J37" s="10">
-        <v>1</v>
-      </c>
-      <c r="K37" s="10">
-        <v>2</v>
-      </c>
-      <c r="L37" s="10"/>
+      <c r="J37" s="8">
+        <v>1</v>
+      </c>
+      <c r="K37" s="8">
+        <v>2</v>
+      </c>
+      <c r="L37" s="8"/>
       <c r="M37" s="3">
         <v>6</v>
       </c>
@@ -3199,7 +3244,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -3219,15 +3264,15 @@
       <c r="G38" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="10" t="s">
+      <c r="H38" s="7"/>
+      <c r="I38" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="J38" s="10">
-        <v>1</v>
-      </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
+      <c r="J38" s="8">
+        <v>1</v>
+      </c>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
       <c r="M38" s="3">
         <v>2</v>
       </c>
@@ -3253,7 +3298,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -3273,17 +3318,17 @@
       <c r="G39" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="10" t="s">
+      <c r="H39" s="7"/>
+      <c r="I39" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J39" s="8">
         <v>6</v>
       </c>
-      <c r="K39" s="10">
-        <v>2</v>
-      </c>
-      <c r="L39" s="10">
+      <c r="K39" s="8">
+        <v>2</v>
+      </c>
+      <c r="L39" s="8">
         <v>1</v>
       </c>
       <c r="M39" s="3">
@@ -3309,7 +3354,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -3329,17 +3374,17 @@
       <c r="G40" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H40" s="9"/>
-      <c r="I40" s="10" t="s">
+      <c r="H40" s="7"/>
+      <c r="I40" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="J40" s="10">
-        <v>1</v>
-      </c>
-      <c r="K40" s="10">
-        <v>2</v>
-      </c>
-      <c r="L40" s="10">
+      <c r="J40" s="8">
+        <v>1</v>
+      </c>
+      <c r="K40" s="8">
+        <v>2</v>
+      </c>
+      <c r="L40" s="8">
         <v>2</v>
       </c>
       <c r="M40" s="3">
@@ -3365,7 +3410,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -3385,17 +3430,17 @@
       <c r="G41" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="H41" s="9"/>
-      <c r="I41" s="10" t="s">
+      <c r="H41" s="7"/>
+      <c r="I41" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="J41" s="10">
-        <v>1</v>
-      </c>
-      <c r="K41" s="10">
-        <v>2</v>
-      </c>
-      <c r="L41" s="10">
+      <c r="J41" s="8">
+        <v>1</v>
+      </c>
+      <c r="K41" s="8">
+        <v>2</v>
+      </c>
+      <c r="L41" s="8">
         <v>2</v>
       </c>
       <c r="M41" s="3">
@@ -3421,7 +3466,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -3441,13 +3486,13 @@
       <c r="G42" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="10" t="s">
+      <c r="H42" s="7"/>
+      <c r="I42" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10">
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8">
         <v>1</v>
       </c>
       <c r="M42" s="3">
@@ -3469,7 +3514,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -3489,17 +3534,17 @@
       <c r="G43" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="H43" s="9"/>
-      <c r="I43" s="10" t="s">
+      <c r="H43" s="7"/>
+      <c r="I43" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="J43" s="10">
-        <v>4</v>
-      </c>
-      <c r="K43" s="10">
-        <v>2</v>
-      </c>
-      <c r="L43" s="10">
+      <c r="J43" s="8">
+        <v>4</v>
+      </c>
+      <c r="K43" s="8">
+        <v>2</v>
+      </c>
+      <c r="L43" s="8">
         <v>2</v>
       </c>
       <c r="M43" s="3">
@@ -3525,7 +3570,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -3545,13 +3590,13 @@
       <c r="G44" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H44" s="9"/>
-      <c r="I44" s="10" t="s">
+      <c r="H44" s="7"/>
+      <c r="I44" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -3559,9 +3604,11 @@
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
-      <c r="T44" s="3"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T44" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -3581,17 +3628,17 @@
       <c r="G45" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H45" s="9"/>
-      <c r="I45" s="10" t="s">
+      <c r="H45" s="7"/>
+      <c r="I45" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="J45" s="10">
-        <v>2</v>
-      </c>
-      <c r="K45" s="10">
-        <v>2</v>
-      </c>
-      <c r="L45" s="10"/>
+      <c r="J45" s="8">
+        <v>2</v>
+      </c>
+      <c r="K45" s="8">
+        <v>2</v>
+      </c>
+      <c r="L45" s="8"/>
       <c r="M45" s="3">
         <v>2</v>
       </c>
@@ -3615,7 +3662,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -3635,15 +3682,15 @@
       <c r="G46" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H46" s="9"/>
-      <c r="I46" s="10" t="s">
+      <c r="H46" s="7"/>
+      <c r="I46" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="J46" s="10">
-        <v>1</v>
-      </c>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10">
+      <c r="J46" s="8">
+        <v>1</v>
+      </c>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8">
         <v>2</v>
       </c>
       <c r="M46" s="3">
@@ -3671,7 +3718,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -3691,17 +3738,17 @@
       <c r="G47" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H47" s="9"/>
-      <c r="I47" s="10" t="s">
+      <c r="H47" s="7"/>
+      <c r="I47" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="J47" s="10">
-        <v>4</v>
-      </c>
-      <c r="K47" s="10">
-        <v>2</v>
-      </c>
-      <c r="L47" s="10"/>
+      <c r="J47" s="8">
+        <v>4</v>
+      </c>
+      <c r="K47" s="8">
+        <v>2</v>
+      </c>
+      <c r="L47" s="8"/>
       <c r="M47" s="3">
         <v>1</v>
       </c>
@@ -3725,7 +3772,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -3745,13 +3792,13 @@
       <c r="G48" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="H48" s="9"/>
-      <c r="I48" s="10" t="s">
+      <c r="H48" s="7"/>
+      <c r="I48" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
       <c r="M48" s="3">
         <v>6</v>
       </c>
@@ -3771,7 +3818,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -3791,17 +3838,17 @@
       <c r="G49" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="H49" s="9"/>
-      <c r="I49" s="10" t="s">
+      <c r="H49" s="7"/>
+      <c r="I49" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="J49" s="10">
-        <v>4</v>
-      </c>
-      <c r="K49" s="10">
-        <v>2</v>
-      </c>
-      <c r="L49" s="10">
+      <c r="J49" s="8">
+        <v>4</v>
+      </c>
+      <c r="K49" s="8">
+        <v>2</v>
+      </c>
+      <c r="L49" s="8">
         <v>2</v>
       </c>
       <c r="M49" s="3">
@@ -3827,7 +3874,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -3847,17 +3894,17 @@
       <c r="G50" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="H50" s="9"/>
-      <c r="I50" s="10" t="s">
+      <c r="H50" s="7"/>
+      <c r="I50" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="J50" s="10">
-        <v>1</v>
-      </c>
-      <c r="K50" s="10">
-        <v>1</v>
-      </c>
-      <c r="L50" s="10">
+      <c r="J50" s="8">
+        <v>1</v>
+      </c>
+      <c r="K50" s="8">
+        <v>1</v>
+      </c>
+      <c r="L50" s="8">
         <v>2</v>
       </c>
       <c r="M50" s="3"/>
@@ -3871,7 +3918,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -3891,17 +3938,17 @@
       <c r="G51" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H51" s="9"/>
-      <c r="I51" s="10" t="s">
+      <c r="H51" s="7"/>
+      <c r="I51" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="J51" s="10">
-        <v>4</v>
-      </c>
-      <c r="K51" s="10">
-        <v>2</v>
-      </c>
-      <c r="L51" s="10">
+      <c r="J51" s="8">
+        <v>4</v>
+      </c>
+      <c r="K51" s="8">
+        <v>2</v>
+      </c>
+      <c r="L51" s="8">
         <v>1</v>
       </c>
       <c r="M51" s="3">
@@ -3927,7 +3974,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -3947,17 +3994,17 @@
       <c r="G52" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="H52" s="9"/>
-      <c r="I52" s="10" t="s">
+      <c r="H52" s="7"/>
+      <c r="I52" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="J52" s="10">
-        <v>4</v>
-      </c>
-      <c r="K52" s="10">
-        <v>2</v>
-      </c>
-      <c r="L52" s="10">
+      <c r="J52" s="8">
+        <v>4</v>
+      </c>
+      <c r="K52" s="8">
+        <v>2</v>
+      </c>
+      <c r="L52" s="8">
         <v>2</v>
       </c>
       <c r="M52" s="3">
@@ -3985,7 +4032,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -4005,17 +4052,17 @@
       <c r="G53" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H53" s="9"/>
-      <c r="I53" s="10" t="s">
+      <c r="H53" s="7"/>
+      <c r="I53" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="J53" s="10">
-        <v>1</v>
-      </c>
-      <c r="K53" s="10">
-        <v>2</v>
-      </c>
-      <c r="L53" s="10">
+      <c r="J53" s="8">
+        <v>1</v>
+      </c>
+      <c r="K53" s="8">
+        <v>2</v>
+      </c>
+      <c r="L53" s="8">
         <v>2</v>
       </c>
       <c r="M53" s="3">
@@ -4035,7 +4082,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -4055,15 +4102,15 @@
       <c r="G54" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H54" s="9"/>
-      <c r="I54" s="10" t="s">
+      <c r="H54" s="7"/>
+      <c r="I54" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="J54" s="10">
-        <v>1</v>
-      </c>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
+      <c r="J54" s="8">
+        <v>1</v>
+      </c>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
       <c r="M54" s="3">
         <v>6</v>
       </c>
@@ -4089,7 +4136,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -4109,15 +4156,15 @@
       <c r="G55" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H55" s="9"/>
-      <c r="I55" s="10" t="s">
+      <c r="H55" s="7"/>
+      <c r="I55" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="J55" s="10">
-        <v>1</v>
-      </c>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
+      <c r="J55" s="8">
+        <v>1</v>
+      </c>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
       <c r="M55" s="3">
         <v>6</v>
       </c>
@@ -4143,7 +4190,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -4163,15 +4210,15 @@
       <c r="G56" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H56" s="9"/>
-      <c r="I56" s="10" t="s">
+      <c r="H56" s="7"/>
+      <c r="I56" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="J56" s="10">
-        <v>4</v>
-      </c>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
+      <c r="J56" s="8">
+        <v>4</v>
+      </c>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
       <c r="M56" s="3">
         <v>2</v>
       </c>
@@ -4197,7 +4244,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -4217,15 +4264,15 @@
       <c r="G57" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="H57" s="9"/>
-      <c r="I57" s="10" t="s">
+      <c r="H57" s="7"/>
+      <c r="I57" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10">
-        <v>2</v>
-      </c>
-      <c r="L57" s="10">
+      <c r="J57" s="8"/>
+      <c r="K57" s="8">
+        <v>2</v>
+      </c>
+      <c r="L57" s="8">
         <v>1</v>
       </c>
       <c r="M57" s="3">
@@ -4247,7 +4294,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -4267,15 +4314,15 @@
       <c r="G58" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="H58" s="9"/>
-      <c r="I58" s="10" t="s">
+      <c r="H58" s="7"/>
+      <c r="I58" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10">
-        <v>2</v>
-      </c>
-      <c r="L58" s="10">
+      <c r="J58" s="8"/>
+      <c r="K58" s="8">
+        <v>2</v>
+      </c>
+      <c r="L58" s="8">
         <v>1</v>
       </c>
       <c r="M58" s="3">
@@ -4297,7 +4344,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -4317,17 +4364,17 @@
       <c r="G59" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="H59" s="9"/>
-      <c r="I59" s="10" t="s">
+      <c r="H59" s="7"/>
+      <c r="I59" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="J59" s="10">
-        <v>4</v>
-      </c>
-      <c r="K59" s="10">
-        <v>2</v>
-      </c>
-      <c r="L59" s="10">
+      <c r="J59" s="8">
+        <v>4</v>
+      </c>
+      <c r="K59" s="8">
+        <v>2</v>
+      </c>
+      <c r="L59" s="8">
         <v>1</v>
       </c>
       <c r="M59" s="3">
@@ -4355,63 +4402,63 @@
         <v>229</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="27.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+    <row r="60" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="14">
         <v>58</v>
       </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="2" t="s">
+      <c r="B60" s="15"/>
+      <c r="C60" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="14">
         <v>20135354</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="F60" s="2">
-        <v>2</v>
-      </c>
-      <c r="G60" s="2" t="s">
+      <c r="F60" s="14">
+        <v>2</v>
+      </c>
+      <c r="G60" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="H60" s="9"/>
-      <c r="I60" s="10" t="s">
+      <c r="H60" s="16"/>
+      <c r="I60" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="J60" s="10">
-        <v>1</v>
-      </c>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10">
-        <v>1</v>
-      </c>
-      <c r="M60" s="3">
-        <v>2</v>
-      </c>
-      <c r="N60" s="3">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3">
-        <v>5</v>
-      </c>
-      <c r="P60" s="5">
+      <c r="J60" s="17">
+        <v>1</v>
+      </c>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17">
+        <v>1</v>
+      </c>
+      <c r="M60" s="18">
+        <v>2</v>
+      </c>
+      <c r="N60" s="18">
+        <v>3</v>
+      </c>
+      <c r="O60" s="18">
+        <v>5</v>
+      </c>
+      <c r="P60" s="19">
         <v>9</v>
       </c>
-      <c r="Q60" s="5">
-        <v>4</v>
-      </c>
-      <c r="R60" s="5">
-        <v>5</v>
-      </c>
-      <c r="S60" s="5">
-        <v>2</v>
-      </c>
-      <c r="T60" s="3" t="s">
+      <c r="Q60" s="19">
+        <v>4</v>
+      </c>
+      <c r="R60" s="19">
+        <v>5</v>
+      </c>
+      <c r="S60" s="19">
+        <v>2</v>
+      </c>
+      <c r="T60" s="18" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -4431,17 +4478,17 @@
       <c r="G61" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H61" s="9"/>
-      <c r="I61" s="10" t="s">
+      <c r="H61" s="7"/>
+      <c r="I61" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="J61" s="10">
-        <v>1</v>
-      </c>
-      <c r="K61" s="10">
-        <v>2</v>
-      </c>
-      <c r="L61" s="10">
+      <c r="J61" s="8">
+        <v>1</v>
+      </c>
+      <c r="K61" s="8">
+        <v>2</v>
+      </c>
+      <c r="L61" s="8">
         <v>2</v>
       </c>
       <c r="M61" s="3">
@@ -4469,7 +4516,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -4489,17 +4536,17 @@
       <c r="G62" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="H62" s="9"/>
-      <c r="I62" s="10" t="s">
+      <c r="H62" s="7"/>
+      <c r="I62" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="J62" s="10">
-        <v>5</v>
-      </c>
-      <c r="K62" s="10">
-        <v>2</v>
-      </c>
-      <c r="L62" s="10"/>
+      <c r="J62" s="8">
+        <v>5</v>
+      </c>
+      <c r="K62" s="8">
+        <v>2</v>
+      </c>
+      <c r="L62" s="8"/>
       <c r="M62" s="3">
         <v>3</v>
       </c>
@@ -4523,7 +4570,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -4543,17 +4590,17 @@
       <c r="G63" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="H63" s="9"/>
-      <c r="I63" s="10" t="s">
+      <c r="H63" s="7"/>
+      <c r="I63" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="J63" s="10">
-        <v>4</v>
-      </c>
-      <c r="K63" s="10">
-        <v>2</v>
-      </c>
-      <c r="L63" s="10">
+      <c r="J63" s="8">
+        <v>4</v>
+      </c>
+      <c r="K63" s="8">
+        <v>2</v>
+      </c>
+      <c r="L63" s="8">
         <v>2</v>
       </c>
       <c r="M63" s="3">
@@ -4579,7 +4626,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -4599,15 +4646,15 @@
       <c r="G64" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H64" s="9"/>
-      <c r="I64" s="10" t="s">
+      <c r="H64" s="7"/>
+      <c r="I64" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="J64" s="10">
-        <v>4</v>
-      </c>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
+      <c r="J64" s="8">
+        <v>4</v>
+      </c>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
       <c r="M64" s="3">
         <v>1</v>
       </c>
@@ -4633,7 +4680,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -4653,17 +4700,17 @@
       <c r="G65" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="H65" s="9"/>
-      <c r="I65" s="10" t="s">
+      <c r="H65" s="7"/>
+      <c r="I65" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="J65" s="10">
-        <v>4</v>
-      </c>
-      <c r="K65" s="10">
-        <v>2</v>
-      </c>
-      <c r="L65" s="10">
+      <c r="J65" s="8">
+        <v>4</v>
+      </c>
+      <c r="K65" s="8">
+        <v>2</v>
+      </c>
+      <c r="L65" s="8">
         <v>2</v>
       </c>
       <c r="M65" s="3">
@@ -4689,7 +4736,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -4709,15 +4756,15 @@
       <c r="G66" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H66" s="9"/>
-      <c r="I66" s="10" t="s">
+      <c r="H66" s="7"/>
+      <c r="I66" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="J66" s="10">
-        <v>1</v>
-      </c>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
+      <c r="J66" s="8">
+        <v>1</v>
+      </c>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
       <c r="M66" s="3">
         <v>1</v>
       </c>
